--- a/Documents/Testing/TestDocuments/acceptance-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/acceptance-test-cases-g3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitl\OneDrive\Documents\CANADA\SENECA\ALL COURSES\SEMESTER 2\SFT221\PROJECT\ms5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bilal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AA685-B45F-4D5A-912A-F66A8335EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ECD56-2A42-428F-862C-95A5694F03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6096" windowWidth="23040" windowHeight="6144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -424,6 +424,9 @@
       <t xml:space="preserve">
 Program must display correct message stating the route the package will ship on (single-digit row).</t>
     </r>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -800,19 +803,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -845,9 +848,11 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -855,7 +860,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -868,9 +873,11 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -883,8 +890,11 @@
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -892,7 +902,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -905,8 +915,11 @@
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -914,7 +927,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -927,8 +940,11 @@
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -936,7 +952,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -950,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -964,7 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -978,7 +994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -986,7 +1002,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -999,8 +1015,11 @@
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1008,7 +1027,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1022,9 +1041,11 @@
         <v>25</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1032,7 +1053,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -1045,10 +1066,12 @@
       <c r="D19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="2"/>
@@ -1056,26 +1079,26 @@
       <c r="E20" s="2"/>
       <c r="F20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1083,7 +1106,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1091,13 +1114,13 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>

--- a/Documents/Testing/TestDocuments/acceptance-test-cases-g3.xlsx
+++ b/Documents/Testing/TestDocuments/acceptance-test-cases-g3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bilal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grcga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ECD56-2A42-428F-862C-95A5694F03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0396B93E-4E6E-4EF2-9ECE-F048DFB4A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -130,13 +130,6 @@
     </r>
   </si>
   <si>
-    <t>SHIPMENT:
-Weight: 30kg
-Size: 3
-Destination: 8K
-Input Format: 25 5 8K</t>
-  </si>
-  <si>
     <t>Invalid size</t>
   </si>
   <si>
@@ -427,6 +420,13 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>SHIPMENT:
+Weight: 30kg
+Size: 3
+Destination: 8K
+Input Format: 30 3 8K</t>
   </si>
 </sst>
 </file>
@@ -803,19 +803,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,9 +835,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -848,11 +848,14 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -860,26 +863,29 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -890,11 +896,14 @@
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -902,24 +911,27 @@
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -927,24 +939,27 @@
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -952,49 +967,67 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1002,24 +1035,27 @@
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1027,25 +1063,27 @@
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1053,25 +1091,27 @@
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="2"/>
@@ -1079,26 +1119,26 @@
       <c r="E20" s="2"/>
       <c r="F20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1106,7 +1146,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1114,13 +1154,13 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
